--- a/data/trans_orig/Q5408-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/Q5408-Dificultad-trans_orig.xlsx
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5562</v>
+        <v>5386</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01293937725414841</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04311890600181827</v>
+        <v>0.04175100287444272</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>5</v>
@@ -768,16 +768,16 @@
         <v>1190</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>11294</v>
+        <v>10759</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01674819508509215</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.004371675185037754</v>
+        <v>0.004370801595114114</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04148982549221607</v>
+        <v>0.03952582178464305</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>7</v>
@@ -786,19 +786,19 @@
         <v>6228</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2492</v>
+        <v>2620</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>13571</v>
+        <v>13216</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01552362261827771</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.006212177899227574</v>
+        <v>0.00653120029730275</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03382453712727918</v>
+        <v>0.03293969784365455</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>9089</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4400</v>
+        <v>4559</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>15692</v>
+        <v>15395</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.07046081671717025</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03411087999536665</v>
+        <v>0.03534009980437046</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1216519153288816</v>
+        <v>0.1193482674244335</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>18</v>
@@ -836,19 +836,19 @@
         <v>20303</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>12080</v>
+        <v>12300</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>31056</v>
+        <v>30224</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.07458493167544707</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.04437575794207917</v>
+        <v>0.04518442228305466</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1140889245121685</v>
+        <v>0.1110308466145378</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>28</v>
@@ -857,19 +857,19 @@
         <v>29392</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>20132</v>
+        <v>19536</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>41025</v>
+        <v>40909</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.07325898807508537</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.05018021387188092</v>
+        <v>0.04869249613292146</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1022555195096269</v>
+        <v>0.1019660683727406</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>118233</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>111585</v>
+        <v>111464</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>123567</v>
+        <v>122962</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9165998060286813</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8650602924465971</v>
+        <v>0.8641238626320216</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9579495943189866</v>
+        <v>0.9532567040174029</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>243</v>
@@ -907,19 +907,19 @@
         <v>247350</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>236841</v>
+        <v>236051</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>256158</v>
+        <v>256360</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.9086668732394608</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.8700614966572029</v>
+        <v>0.8671579325469732</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9410249522243808</v>
+        <v>0.9417647096413937</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>370</v>
@@ -928,19 +928,19 @@
         <v>365583</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>353978</v>
+        <v>353776</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>376748</v>
+        <v>376685</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9112173893066369</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.8822925155765841</v>
+        <v>0.8817870279744745</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.939046035602123</v>
+        <v>0.9388892364857401</v>
       </c>
     </row>
     <row r="7">
@@ -1079,19 +1079,19 @@
         <v>4661</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1815</v>
+        <v>1703</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>10740</v>
+        <v>10589</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.0286763928954337</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01116599805391801</v>
+        <v>0.01047594444467696</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.06607041901693186</v>
+        <v>0.06514180120069486</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>4</v>
@@ -1100,19 +1100,19 @@
         <v>4303</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>1110</v>
+        <v>1144</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>9918</v>
+        <v>10637</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.02113328975197188</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.005453229960848718</v>
+        <v>0.005620239790482354</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.04871282443029047</v>
+        <v>0.05224356105774405</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>9</v>
@@ -1121,19 +1121,19 @@
         <v>8964</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>4145</v>
+        <v>4330</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>16380</v>
+        <v>16052</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.02448209001671889</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.0113202528116698</v>
+        <v>0.0118257941879351</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.0447360432706794</v>
+        <v>0.04383942835538321</v>
       </c>
     </row>
     <row r="10">
@@ -1150,19 +1150,19 @@
         <v>157894</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>151815</v>
+        <v>151966</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>160740</v>
+        <v>160852</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9713236071045663</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9339295809830679</v>
+        <v>0.9348581987993073</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.988834001946082</v>
+        <v>0.9895240555553231</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>196</v>
@@ -1171,19 +1171,19 @@
         <v>199294</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>193679</v>
+        <v>192960</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>202487</v>
+        <v>202453</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9788667102480281</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9512871755697095</v>
+        <v>0.9477564389422561</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9945467700391514</v>
+        <v>0.9943797602095176</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>362</v>
@@ -1192,19 +1192,19 @@
         <v>357189</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>349773</v>
+        <v>350101</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>362008</v>
+        <v>361823</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9755179099832811</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9552639567293201</v>
+        <v>0.9561605716446161</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9886797471883302</v>
+        <v>0.9881742058120649</v>
       </c>
     </row>
     <row r="11">
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>5458</v>
+        <v>6571</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.007695303369998224</v>
@@ -1321,7 +1321,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.03736722211855453</v>
+        <v>0.0449837664724023</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>5681</v>
+        <v>4575</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.003862868578065845</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.01952404513626211</v>
+        <v>0.01572209956695813</v>
       </c>
     </row>
     <row r="13">
@@ -1359,19 +1359,19 @@
         <v>2822</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>898</v>
+        <v>890</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>8545</v>
+        <v>8359</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01947624320833419</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.006198181631426826</v>
+        <v>0.006140689913018292</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05896235969030885</v>
+        <v>0.05768263708703006</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>5</v>
@@ -1380,19 +1380,19 @@
         <v>5738</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2204</v>
+        <v>2214</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>12732</v>
+        <v>11787</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03928578793292625</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01508915662515354</v>
+        <v>0.01515450858501013</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08716278097794899</v>
+        <v>0.08069552296208143</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>8</v>
@@ -1401,19 +1401,19 @@
         <v>8561</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>3897</v>
+        <v>4112</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>16394</v>
+        <v>15956</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02942018747968712</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0133935654594852</v>
+        <v>0.0141298299122839</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05633938440960537</v>
+        <v>0.0548361177637092</v>
       </c>
     </row>
     <row r="14">
@@ -1430,19 +1430,19 @@
         <v>142094</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>136371</v>
+        <v>136557</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>144018</v>
+        <v>144026</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9805237567916658</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9410376403096913</v>
+        <v>0.9423173629129703</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9938018183685732</v>
+        <v>0.9938593100869817</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>134</v>
@@ -1451,19 +1451,19 @@
         <v>139205</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>132350</v>
+        <v>132545</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>143773</v>
+        <v>143674</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9530189086970755</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9060907277250742</v>
+        <v>0.9074235520881773</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9842973564013707</v>
+        <v>0.9836190865586268</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>275</v>
@@ -1472,19 +1472,19 @@
         <v>281299</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>273590</v>
+        <v>273780</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>286632</v>
+        <v>286578</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9667169439422471</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9402230766869125</v>
+        <v>0.9408764380287938</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9850438092022743</v>
+        <v>0.9848596618867771</v>
       </c>
     </row>
     <row r="15">
@@ -1795,7 +1795,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>5448</v>
+        <v>5780</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.003435663575848832</v>
@@ -1804,7 +1804,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01121400014113955</v>
+        <v>0.01189738079729285</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>6</v>
@@ -1813,19 +1813,19 @@
         <v>5683</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2052</v>
+        <v>1312</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>12915</v>
+        <v>11850</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.008596273229549412</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.003103155726319911</v>
+        <v>0.001985022649759059</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01953464010561079</v>
+        <v>0.01792444415329243</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>8</v>
@@ -1834,19 +1834,19 @@
         <v>7352</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>3163</v>
+        <v>3040</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>14810</v>
+        <v>14016</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.006410371207280006</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.002758032684473065</v>
+        <v>0.002650980535957249</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01291294859208291</v>
+        <v>0.01222080314211152</v>
       </c>
     </row>
     <row r="21">
@@ -1863,19 +1863,19 @@
         <v>16573</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>10289</v>
+        <v>9998</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>25012</v>
+        <v>25610</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.03411400058816935</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.02117839550003444</v>
+        <v>0.02057996841954454</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.05148602059092657</v>
+        <v>0.05271690701819792</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>27</v>
@@ -1884,19 +1884,19 @@
         <v>30344</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>20105</v>
+        <v>21414</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>42686</v>
+        <v>42331</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.04589842394342251</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.03041101377808697</v>
+        <v>0.03239120046707812</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.06456677008287483</v>
+        <v>0.06402939367513195</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>45</v>
@@ -1905,19 +1905,19 @@
         <v>46917</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>34766</v>
+        <v>33883</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>62113</v>
+        <v>60625</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.04090684415496574</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.0303126492467043</v>
+        <v>0.02954286770690984</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.05415621954921131</v>
+        <v>0.0528594349394108</v>
       </c>
     </row>
     <row r="22">
@@ -1934,19 +1934,19 @@
         <v>467562</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>458617</v>
+        <v>457868</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>474312</v>
+        <v>474288</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9624503358359818</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9440381039569171</v>
+        <v>0.9424947506090595</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9763435464117843</v>
+        <v>0.9762957941740755</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>612</v>
@@ -1955,19 +1955,19 @@
         <v>625085</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>613227</v>
+        <v>612336</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>636520</v>
+        <v>635047</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.945505302827028</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9275691234182081</v>
+        <v>0.9262211352722237</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.962802649273991</v>
+        <v>0.9605735333705456</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1098</v>
@@ -1976,19 +1976,19 @@
         <v>1092647</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1077258</v>
+        <v>1077558</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1106388</v>
+        <v>1105955</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9526827846377542</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9392649555295749</v>
+        <v>0.9395268502778706</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9646632399394579</v>
+        <v>0.9642857506366639</v>
       </c>
     </row>
     <row r="23">
@@ -2320,19 +2320,19 @@
         <v>3124</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>963</v>
+        <v>979</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8102</v>
+        <v>8261</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0227160094571276</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.007004390306353565</v>
+        <v>0.007121752149426068</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05890894579710697</v>
+        <v>0.06006263009825418</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>8</v>
@@ -2341,19 +2341,19 @@
         <v>8607</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3965</v>
+        <v>3455</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>16457</v>
+        <v>16347</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03991432168060019</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01838683091485183</v>
+        <v>0.01602403464033158</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07631838895965272</v>
+        <v>0.07580730781116271</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>11</v>
@@ -2362,19 +2362,19 @@
         <v>11731</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>6330</v>
+        <v>6210</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>20042</v>
+        <v>19808</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03321681836532233</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01792270549277658</v>
+        <v>0.01758338977293695</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05674967025992681</v>
+        <v>0.05608643970989558</v>
       </c>
     </row>
     <row r="5">
@@ -2391,19 +2391,19 @@
         <v>9466</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4213</v>
+        <v>4223</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>17123</v>
+        <v>16479</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.06882741052965752</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03063153346754418</v>
+        <v>0.03070398002182016</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1244994422144882</v>
+        <v>0.1198169751424637</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>16</v>
@@ -2412,19 +2412,19 @@
         <v>17659</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>10144</v>
+        <v>10827</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>28112</v>
+        <v>27958</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.08189382681214082</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.04704264119054474</v>
+        <v>0.05021096711576621</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1303701291062145</v>
+        <v>0.12965621240356</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>25</v>
@@ -2433,19 +2433,19 @@
         <v>27125</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>17352</v>
+        <v>17878</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>38104</v>
+        <v>39804</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.07680539922496782</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04913342131111881</v>
+        <v>0.0506221279196762</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1078919359720654</v>
+        <v>0.1127059492096923</v>
       </c>
     </row>
     <row r="6">
@@ -2462,19 +2462,19 @@
         <v>124943</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>117135</v>
+        <v>117414</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>131073</v>
+        <v>130900</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9084565800132148</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8516895242575973</v>
+        <v>0.8537126329778911</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9530286591644563</v>
+        <v>0.9517726288565745</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>177</v>
@@ -2483,19 +2483,19 @@
         <v>189368</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>178738</v>
+        <v>177700</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>198934</v>
+        <v>198171</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.878191851507259</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.828894376773321</v>
+        <v>0.8240836766098694</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9225541809175142</v>
+        <v>0.9190137952600292</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>288</v>
@@ -2504,19 +2504,19 @@
         <v>314311</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>300591</v>
+        <v>300864</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>325904</v>
+        <v>325263</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.8899777824097098</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.8511293916886129</v>
+        <v>0.851901949261373</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9228052500990435</v>
+        <v>0.9209898985367229</v>
       </c>
     </row>
     <row r="7">
@@ -2611,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>12843</v>
+        <v>12626</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01893941247703389</v>
@@ -2620,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.074465227517559</v>
+        <v>0.07320885227905466</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>3</v>
@@ -2629,19 +2629,19 @@
         <v>3261</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1057</v>
+        <v>1053</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>9400</v>
+        <v>8654</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01319689246971983</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.004278850273361272</v>
+        <v>0.00426102732321158</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.03804437360743947</v>
+        <v>0.03502841558073445</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>5</v>
@@ -2650,19 +2650,19 @@
         <v>6527</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2131</v>
+        <v>2198</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>16186</v>
+        <v>15031</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.0155576187173283</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.005078640249026244</v>
+        <v>0.005239409732418551</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.03858074623217672</v>
+        <v>0.03582725208068299</v>
       </c>
     </row>
     <row r="9">
@@ -2679,19 +2679,19 @@
         <v>8449</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>4166</v>
+        <v>3188</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>18880</v>
+        <v>16851</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.04899097079462316</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.02415360586603832</v>
+        <v>0.01848723125982429</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1094676058468226</v>
+        <v>0.09770559454744447</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>18</v>
@@ -2700,19 +2700,19 @@
         <v>19759</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>11637</v>
+        <v>12243</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>28888</v>
+        <v>30007</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.07997278805439217</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.04709988853727406</v>
+        <v>0.04955410032128172</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1169241996493238</v>
+        <v>0.1214531690629254</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>25</v>
@@ -2721,19 +2721,19 @@
         <v>28208</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>18003</v>
+        <v>18072</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>40849</v>
+        <v>41262</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.06723629099202404</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.04291118416516492</v>
+        <v>0.04307720996269556</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.09736654864435912</v>
+        <v>0.09835231885364454</v>
       </c>
     </row>
     <row r="10">
@@ -2750,19 +2750,19 @@
         <v>160754</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>150714</v>
+        <v>151056</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>166218</v>
+        <v>167171</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.932069616728343</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8738548128611355</v>
+        <v>0.8758383224340562</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9637489435409239</v>
+        <v>0.9692763451265565</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>215</v>
@@ -2771,19 +2771,19 @@
         <v>224048</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>214731</v>
+        <v>212601</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>233322</v>
+        <v>232208</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.906830319475888</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8691191799254359</v>
+        <v>0.8605004912142733</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9443681028562907</v>
+        <v>0.9398594818715522</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>363</v>
@@ -2792,19 +2792,19 @@
         <v>384801</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>370509</v>
+        <v>369940</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>395060</v>
+        <v>395359</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9172060902906477</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8831391107746931</v>
+        <v>0.8817837144005738</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9416585791562203</v>
+        <v>0.9423716209950656</v>
       </c>
     </row>
     <row r="11">
@@ -2896,19 +2896,19 @@
         <v>3047</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>962</v>
+        <v>975</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8232</v>
+        <v>8270</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01832765494466313</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.005789226380368845</v>
+        <v>0.005863678636435182</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.04952090112308355</v>
+        <v>0.04974832667196961</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>5</v>
@@ -2917,19 +2917,19 @@
         <v>6407</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>2129</v>
+        <v>2186</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>14737</v>
+        <v>15554</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.03335701475191182</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01108203063556165</v>
+        <v>0.01137916126461845</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.07672578679386834</v>
+        <v>0.08098179476755134</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>8</v>
@@ -2938,19 +2938,19 @@
         <v>9454</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>4132</v>
+        <v>4205</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>18208</v>
+        <v>17621</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.02638418758202079</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01153070053295438</v>
+        <v>0.01173457491191038</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.05081613464628248</v>
+        <v>0.04917884881539186</v>
       </c>
     </row>
     <row r="13">
@@ -2967,19 +2967,19 @@
         <v>6204</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2121</v>
+        <v>2978</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>12705</v>
+        <v>13400</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03731846254480863</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01275681233872692</v>
+        <v>0.0179155398760432</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07642909778930589</v>
+        <v>0.08061122166065418</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>5</v>
@@ -2988,19 +2988,19 @@
         <v>5321</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2029</v>
+        <v>1993</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>11588</v>
+        <v>11096</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02770193733540311</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01056212861089377</v>
+        <v>0.01037772027679467</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06033413745305862</v>
+        <v>0.05776939882770361</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>11</v>
@@ -3009,19 +3009,19 @@
         <v>11524</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>6170</v>
+        <v>6215</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>20058</v>
+        <v>20115</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03216349585286866</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01722082914699458</v>
+        <v>0.0173461133084932</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05597912293589868</v>
+        <v>0.05613920203147886</v>
       </c>
     </row>
     <row r="14">
@@ -3038,19 +3038,19 @@
         <v>156985</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>149427</v>
+        <v>149619</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>162037</v>
+        <v>162029</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9443538825105282</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8988898717081961</v>
+        <v>0.9000431148210856</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9747463863732969</v>
+        <v>0.9746964207536438</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>169</v>
@@ -3059,19 +3059,19 @@
         <v>180343</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>171067</v>
+        <v>170385</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>185801</v>
+        <v>186085</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9389410479126851</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8906470413411806</v>
+        <v>0.8870935806961164</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.967356578354865</v>
+        <v>0.9688333987727645</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>311</v>
@@ -3080,19 +3080,19 @@
         <v>337328</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>326391</v>
+        <v>326831</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>345528</v>
+        <v>345473</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9414523165651105</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9109290225704396</v>
+        <v>0.9121563946600666</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.964336822042356</v>
+        <v>0.9641849823396352</v>
       </c>
     </row>
     <row r="15">
@@ -3187,7 +3187,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5109</v>
+        <v>5102</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01321746199640529</v>
@@ -3196,7 +3196,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06541277240868623</v>
+        <v>0.06532447397740447</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -3208,7 +3208,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>5388</v>
+        <v>5335</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01270247634288152</v>
@@ -3217,7 +3217,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06335462176194791</v>
+        <v>0.06273149420626291</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2</v>
@@ -3229,7 +3229,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>7269</v>
+        <v>6757</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01294899477260006</v>
@@ -3238,7 +3238,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04455411792977505</v>
+        <v>0.04141783819106343</v>
       </c>
     </row>
     <row r="17">
@@ -3258,7 +3258,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>7314</v>
+        <v>6648</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.02693472638332144</v>
@@ -3267,7 +3267,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.09365069594351402</v>
+        <v>0.08512952195678274</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3</v>
@@ -3276,19 +3276,19 @@
         <v>3373</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1047</v>
+        <v>1086</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>8809</v>
+        <v>9176</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.039658648640203</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01230673249483107</v>
+        <v>0.01276543709568743</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1035749568634942</v>
+        <v>0.1078915582626714</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5</v>
@@ -3297,19 +3297,19 @@
         <v>5476</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2126</v>
+        <v>2113</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>12047</v>
+        <v>11287</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.0335678355987822</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01302909754438837</v>
+        <v>0.01295363121870405</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.07384225021546802</v>
+        <v>0.06918407480049656</v>
       </c>
     </row>
     <row r="18">
@@ -3326,19 +3326,19 @@
         <v>74961</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>70335</v>
+        <v>70429</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>77154</v>
+        <v>77152</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.9598478116202732</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.9006160918564953</v>
+        <v>0.9018163280694793</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9879308602093897</v>
+        <v>0.9879039894552182</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>71</v>
@@ -3347,19 +3347,19 @@
         <v>80597</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>74915</v>
+        <v>74854</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>83942</v>
+        <v>83926</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.9476388750169155</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.8808326012252399</v>
+        <v>0.8801137461422989</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9869687667460837</v>
+        <v>0.9867867480884134</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>136</v>
@@ -3368,19 +3368,19 @@
         <v>155557</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>148532</v>
+        <v>149011</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>159938</v>
+        <v>159928</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.9534831696286178</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.9104259738271053</v>
+        <v>0.9133590101760648</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9803362613292703</v>
+        <v>0.9802753261003104</v>
       </c>
     </row>
     <row r="19">
@@ -3472,19 +3472,19 @@
         <v>10470</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>5093</v>
+        <v>5173</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>19272</v>
+        <v>20909</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01888682073817004</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.009187340466104144</v>
+        <v>0.009331860645663654</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.03476586836227209</v>
+        <v>0.03771949849481087</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>17</v>
@@ -3493,19 +3493,19 @@
         <v>19355</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>11436</v>
+        <v>10874</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>30946</v>
+        <v>29669</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.02616124408268883</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01545769055189879</v>
+        <v>0.01469863125344792</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.041829250745821</v>
+        <v>0.0401029056014147</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>26</v>
@@ -3514,19 +3514,19 @@
         <v>29824</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>19777</v>
+        <v>18709</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>44166</v>
+        <v>42682</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.02304534212600943</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01528156989480155</v>
+        <v>0.01445631315313956</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.03412699853696107</v>
+        <v>0.03298095434196977</v>
       </c>
     </row>
     <row r="21">
@@ -3543,19 +3543,19 @@
         <v>26223</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>17349</v>
+        <v>17060</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>37777</v>
+        <v>37517</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.04730474953060843</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.03129761022580851</v>
+        <v>0.03077541111470928</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.06814789874895487</v>
+        <v>0.06767924233257684</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>42</v>
@@ -3564,19 +3564,19 @@
         <v>46111</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>34083</v>
+        <v>35151</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>61968</v>
+        <v>62311</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.06232774017635419</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.0460690477282478</v>
+        <v>0.04751303714455667</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.08376051868173562</v>
+        <v>0.08422409539948705</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>66</v>
@@ -3585,19 +3585,19 @@
         <v>72334</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>55072</v>
+        <v>57221</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>91191</v>
+        <v>90691</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.05589284304000225</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.04255405334871253</v>
+        <v>0.04421469324064476</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.07046337646636956</v>
+        <v>0.07007772144016787</v>
       </c>
     </row>
     <row r="22">
@@ -3614,19 +3614,19 @@
         <v>517642</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>501869</v>
+        <v>505173</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>528364</v>
+        <v>529734</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9338084297312216</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9053553094729154</v>
+        <v>0.9113154780552695</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9531512632989293</v>
+        <v>0.9556227564324383</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>632</v>
@@ -3635,19 +3635,19 @@
         <v>674355</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>655915</v>
+        <v>657971</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>689356</v>
+        <v>688835</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9115110157409569</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8865857603190256</v>
+        <v>0.8893644826855944</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9317879033116409</v>
+        <v>0.931083096298676</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1098</v>
@@ -3656,19 +3656,19 @@
         <v>1191997</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1169792</v>
+        <v>1171170</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1211615</v>
+        <v>1212946</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9210618148339883</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9039044684444878</v>
+        <v>0.9049684982506394</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9362207524813071</v>
+        <v>0.937249686822028</v>
       </c>
     </row>
     <row r="23">
@@ -4003,7 +4003,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5889</v>
+        <v>5847</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01003500174299779</v>
@@ -4012,7 +4012,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03538148401331958</v>
+        <v>0.03512697114291032</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -4021,19 +4021,19 @@
         <v>5219</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1333</v>
+        <v>1344</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>12763</v>
+        <v>13163</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02004579076457002</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.005120519488256533</v>
+        <v>0.005162463576794613</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0490177930949549</v>
+        <v>0.05055258792783637</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>6</v>
@@ -4042,19 +4042,19 @@
         <v>6890</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2595</v>
+        <v>2541</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>13659</v>
+        <v>14807</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0161418213314498</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.006079761716661664</v>
+        <v>0.005953736496199082</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03200026832321123</v>
+        <v>0.03468991668014582</v>
       </c>
     </row>
     <row r="5">
@@ -4071,19 +4071,19 @@
         <v>9333</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5062</v>
+        <v>5044</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>16012</v>
+        <v>16748</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.05606833106936884</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03041056675566791</v>
+        <v>0.03030418373760529</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.09619645089861842</v>
+        <v>0.100615596762916</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>14</v>
@@ -4092,19 +4092,19 @@
         <v>17462</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>10080</v>
+        <v>10056</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>27710</v>
+        <v>27567</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.06706285184368665</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03871254532396315</v>
+        <v>0.03862065117440307</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.106421160524496</v>
+        <v>0.1058742532345763</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>25</v>
@@ -4113,19 +4113,19 @@
         <v>26794</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>17854</v>
+        <v>16631</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>38988</v>
+        <v>36909</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.06277525044261338</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04182817640482461</v>
+        <v>0.03896472152913152</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.09134387919720628</v>
+        <v>0.08647184159494603</v>
       </c>
     </row>
     <row r="6">
@@ -4142,19 +4142,19 @@
         <v>155451</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>148705</v>
+        <v>147649</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>160235</v>
+        <v>160084</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9338966671876333</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8933721160102103</v>
+        <v>0.8870278835056378</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9626358879676675</v>
+        <v>0.9617288398985038</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>203</v>
@@ -4163,19 +4163,19 @@
         <v>237697</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>226773</v>
+        <v>226696</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>246506</v>
+        <v>246387</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.9128913573917433</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.8709372829599116</v>
+        <v>0.8706409030446696</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9467244292531973</v>
+        <v>0.9462659761515803</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>366</v>
@@ -4184,19 +4184,19 @@
         <v>393148</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>380692</v>
+        <v>380813</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>404138</v>
+        <v>403602</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9210829282259368</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.8919006029683021</v>
+        <v>0.89218401986036</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9468318779988305</v>
+        <v>0.9455758575715922</v>
       </c>
     </row>
     <row r="7">
@@ -4335,19 +4335,19 @@
         <v>3319</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>7731</v>
+        <v>8069</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.01955133194704821</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.005191291688472813</v>
+        <v>0.005170520123272366</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.045541551076402</v>
+        <v>0.04753375513232554</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>11</v>
@@ -4356,19 +4356,19 @@
         <v>13680</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>7195</v>
+        <v>7296</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>23504</v>
+        <v>23307</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.06195486434939829</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.03258559761816566</v>
+        <v>0.03304265617679514</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1064448081091011</v>
+        <v>0.1055527593628521</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>15</v>
@@ -4377,19 +4377,19 @@
         <v>16999</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>9756</v>
+        <v>10180</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>27418</v>
+        <v>27373</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.04352386131508026</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.02497787353819934</v>
+        <v>0.02606396996829107</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.07019923650979326</v>
+        <v>0.07008431070821514</v>
       </c>
     </row>
     <row r="10">
@@ -4406,19 +4406,19 @@
         <v>166444</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>162032</v>
+        <v>161694</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>168882</v>
+        <v>168885</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9804486680529518</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9544584489235981</v>
+        <v>0.9524662448676749</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9948087083115271</v>
+        <v>0.9948294798767277</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>177</v>
@@ -4427,19 +4427,19 @@
         <v>207125</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>197301</v>
+        <v>197498</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>213610</v>
+        <v>213509</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9380451356506017</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8935551918908985</v>
+        <v>0.8944472406371482</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9674144023818343</v>
+        <v>0.966957343823205</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>356</v>
@@ -4448,19 +4448,19 @@
         <v>373569</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>363150</v>
+        <v>363195</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>380812</v>
+        <v>380388</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9564761386849198</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9298007634902068</v>
+        <v>0.9299156892917849</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9750221264618008</v>
+        <v>0.973936030031709</v>
       </c>
     </row>
     <row r="11">
@@ -4565,19 +4565,19 @@
         <v>8164</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>3186</v>
+        <v>3633</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>16883</v>
+        <v>16926</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.04434201961618631</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01730520912066704</v>
+        <v>0.01973244635832152</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.0917011275519832</v>
+        <v>0.09193734308971498</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>6</v>
@@ -4586,19 +4586,19 @@
         <v>8164</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>3258</v>
+        <v>3298</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>16632</v>
+        <v>17418</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.02401934856802228</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.009584786545448053</v>
+        <v>0.009704766173803019</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.04893675934019633</v>
+        <v>0.05124915363149891</v>
       </c>
     </row>
     <row r="13">
@@ -4615,19 +4615,19 @@
         <v>5574</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2465</v>
+        <v>2369</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>11799</v>
+        <v>11366</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03578437697091492</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01582747263318085</v>
+        <v>0.0152069732131986</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07574379211792868</v>
+        <v>0.07296697794101842</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2</v>
@@ -4639,7 +4639,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>8798</v>
+        <v>8718</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0137736936755435</v>
@@ -4648,7 +4648,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04778656504878306</v>
+        <v>0.04735585594176658</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>8</v>
@@ -4657,19 +4657,19 @@
         <v>8110</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>3745</v>
+        <v>3701</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>16372</v>
+        <v>15743</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02386154894305295</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01101746400056213</v>
+        <v>0.01088834982779166</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04817028985763207</v>
+        <v>0.04631921135718737</v>
       </c>
     </row>
     <row r="14">
@@ -4686,19 +4686,19 @@
         <v>150197</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>143972</v>
+        <v>144405</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>153306</v>
+        <v>153402</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.964215623029085</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9242562078820711</v>
+        <v>0.9270330220589821</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.984172527366819</v>
+        <v>0.9847930267868014</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>145</v>
@@ -4707,19 +4707,19 @@
         <v>173407</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>164545</v>
+        <v>164088</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>179277</v>
+        <v>179191</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9418842867082702</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8937514947896874</v>
+        <v>0.8912669715804444</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9737700139950332</v>
+        <v>0.9733030279284032</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>304</v>
@@ -4728,19 +4728,19 @@
         <v>323603</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>311678</v>
+        <v>312788</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>330356</v>
+        <v>330266</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9521191024889247</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9170325819321011</v>
+        <v>0.9202966882054292</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9719877826209194</v>
+        <v>0.9717235015119269</v>
       </c>
     </row>
     <row r="15">
@@ -4832,19 +4832,19 @@
         <v>3005</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>8589</v>
+        <v>8270</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03416574653045912</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.009249652522223173</v>
+        <v>0.009229183119074653</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09766363982862693</v>
+        <v>0.09403983056069042</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -4866,19 +4866,19 @@
         <v>3005</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>8629</v>
+        <v>8864</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01544988727809272</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.004191504515795755</v>
+        <v>0.004168754795157479</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04437192291188937</v>
+        <v>0.04557545778902888</v>
       </c>
     </row>
     <row r="17">
@@ -4895,19 +4895,19 @@
         <v>5298</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2497</v>
+        <v>1740</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>11820</v>
+        <v>10018</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.06023793083310641</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.0283957505358155</v>
+        <v>0.01978010322065201</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1343968216819093</v>
+        <v>0.1139112003437939</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1</v>
@@ -4919,7 +4919,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>5454</v>
+        <v>7040</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01193091301084237</v>
@@ -4928,7 +4928,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.05119186128110201</v>
+        <v>0.06607733212505765</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>7</v>
@@ -4937,19 +4937,19 @@
         <v>6569</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2672</v>
+        <v>2907</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>13415</v>
+        <v>12898</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.03377553974626077</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01374083895144876</v>
+        <v>0.014948472562258</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.06897855483263295</v>
+        <v>0.06631954973914189</v>
       </c>
     </row>
     <row r="18">
@@ -4966,19 +4966,19 @@
         <v>79643</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>72060</v>
+        <v>73762</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>83611</v>
+        <v>83984</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.9055963226364345</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8193742015824369</v>
+        <v>0.8387330444685174</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9507215034954805</v>
+        <v>0.9549615756648914</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>87</v>
@@ -4987,7 +4987,7 @@
         <v>105265</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>101082</v>
+        <v>99496</v>
       </c>
       <c r="M18" s="5" t="n">
         <v>106536</v>
@@ -4996,7 +4996,7 @@
         <v>0.9880690869891576</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.948808138718899</v>
+        <v>0.9339226678749429</v>
       </c>
       <c r="P18" s="6" t="n">
         <v>1</v>
@@ -5008,19 +5008,19 @@
         <v>184908</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>177819</v>
+        <v>177272</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>190093</v>
+        <v>189478</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.9507745729756465</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.9143271955248216</v>
+        <v>0.9115144015197145</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9774363073462494</v>
+        <v>0.9742732709011021</v>
       </c>
     </row>
     <row r="19">
@@ -5112,19 +5112,19 @@
         <v>4675</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1638</v>
+        <v>1708</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>10438</v>
+        <v>11630</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.008061404696345455</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.002824225538037507</v>
+        <v>0.002945061380773604</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01799904038696894</v>
+        <v>0.02005444152376874</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>10</v>
@@ -5133,19 +5133,19 @@
         <v>13383</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>7110</v>
+        <v>6548</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>24156</v>
+        <v>24185</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01733957172189566</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.009212049109410838</v>
+        <v>0.008483365226948897</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.03129778890833491</v>
+        <v>0.03133447781424106</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>15</v>
@@ -5154,19 +5154,19 @@
         <v>18058</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>10111</v>
+        <v>9954</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>28261</v>
+        <v>29033</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01335903465289055</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.007479992201830413</v>
+        <v>0.007363853910456858</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02090685039742876</v>
+        <v>0.02147787878131391</v>
       </c>
     </row>
     <row r="21">
@@ -5183,19 +5183,19 @@
         <v>23524</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>15704</v>
+        <v>15456</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>33308</v>
+        <v>32409</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.04056276420602711</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.02707890698669802</v>
+        <v>0.02665071228049301</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.05743334398935693</v>
+        <v>0.05588408347185346</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>28</v>
@@ -5204,19 +5204,19 @@
         <v>34948</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>22775</v>
+        <v>24575</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>49283</v>
+        <v>50173</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.04528035800892656</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.02950767491480741</v>
+        <v>0.03183988276240655</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.06385319617284352</v>
+        <v>0.06500631342085725</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>55</v>
@@ -5225,19 +5225,19 @@
         <v>58472</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>43879</v>
+        <v>44914</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>77604</v>
+        <v>74078</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.04325640683869674</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.03246073748585556</v>
+        <v>0.03322645482860314</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.05740946130140362</v>
+        <v>0.05480147142404655</v>
       </c>
     </row>
     <row r="22">
@@ -5254,19 +5254,19 @@
         <v>551735</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>541797</v>
+        <v>541055</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>561130</v>
+        <v>560255</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9513758310976275</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9342388318664363</v>
+        <v>0.9329601528598327</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9675748481508054</v>
+        <v>0.9660674991595648</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>612</v>
@@ -5275,19 +5275,19 @@
         <v>723492</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>706378</v>
+        <v>706817</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>736250</v>
+        <v>736514</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9373800702691778</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.91520613508379</v>
+        <v>0.9157747051151878</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9539090767848029</v>
+        <v>0.9542506367689034</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1196</v>
@@ -5296,19 +5296,19 @@
         <v>1275228</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1256713</v>
+        <v>1256247</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1290991</v>
+        <v>1290939</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9433845585084127</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9296882031507967</v>
+        <v>0.9293433005503374</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9550459816920486</v>
+        <v>0.9550075954830087</v>
       </c>
     </row>
     <row r="23">
@@ -5643,7 +5643,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>3111</v>
+        <v>3087</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.009065218702050177</v>
@@ -5652,7 +5652,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04624890483697006</v>
+        <v>0.04589191761354418</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>7</v>
@@ -5661,19 +5661,19 @@
         <v>4205</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1812</v>
+        <v>1850</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>8544</v>
+        <v>8532</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.02939973061527864</v>
+        <v>0.02939973061527865</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01267167750983354</v>
+        <v>0.01293325129509711</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0597419719103052</v>
+        <v>0.05965711888361937</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>8</v>
@@ -5682,19 +5682,19 @@
         <v>4814</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2298</v>
+        <v>2026</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>9423</v>
+        <v>9219</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02289420172783886</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01092546904277866</v>
+        <v>0.009635767210506373</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04481053904536196</v>
+        <v>0.04383786439469855</v>
       </c>
     </row>
     <row r="5">
@@ -5711,19 +5711,19 @@
         <v>2119</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>4985</v>
+        <v>4992</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.03150347215449405</v>
+        <v>0.03150347215449404</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.008173650954261404</v>
+        <v>0.008074728526037892</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.07409706696006854</v>
+        <v>0.07420000026284329</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>18</v>
@@ -5732,19 +5732,19 @@
         <v>10072</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>6159</v>
+        <v>6181</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>15764</v>
+        <v>16327</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.07042953917384484</v>
+        <v>0.07042953917384485</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.04306804261162918</v>
+        <v>0.04322155091532861</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1102265655969352</v>
+        <v>0.1141661206266147</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>22</v>
@@ -5753,19 +5753,19 @@
         <v>12192</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>7915</v>
+        <v>7986</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>18613</v>
+        <v>18254</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.05797609772664376</v>
+        <v>0.05797609772664377</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.03763844933342745</v>
+        <v>0.03797675002856349</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.08851260115305871</v>
+        <v>0.08680482504579461</v>
       </c>
     </row>
     <row r="6">
@@ -5782,19 +5782,19 @@
         <v>64548</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>61201</v>
+        <v>61182</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>66215</v>
+        <v>66249</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9594313091434559</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9096904000490852</v>
+        <v>0.9094002685652985</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9842157423065205</v>
+        <v>0.9847199952118353</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>241</v>
@@ -5803,19 +5803,19 @@
         <v>128736</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>122202</v>
+        <v>122240</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>133103</v>
+        <v>133426</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.9001707302108766</v>
+        <v>0.9001707302108765</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.8544806273099388</v>
+        <v>0.8547470514972363</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9307067662391487</v>
+        <v>0.9329612825973662</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>330</v>
@@ -5824,19 +5824,19 @@
         <v>193284</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>186458</v>
+        <v>185574</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>198423</v>
+        <v>198248</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.9191297005455173</v>
+        <v>0.9191297005455175</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.8866719083264241</v>
+        <v>0.8824668290944244</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9435673597033072</v>
+        <v>0.9427350037735817</v>
       </c>
     </row>
     <row r="7">
@@ -5928,19 +5928,19 @@
         <v>2469</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>819</v>
+        <v>830</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>5315</v>
+        <v>5973</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01226663689038703</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.004070196220279246</v>
+        <v>0.004121373668330871</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02640468799377978</v>
+        <v>0.02967158403745641</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>10</v>
@@ -5949,19 +5949,19 @@
         <v>5534</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2912</v>
+        <v>2565</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>10562</v>
+        <v>10414</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01830477271071861</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.009632286982824695</v>
+        <v>0.008482961383166975</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.03493493436421765</v>
+        <v>0.03444580421666373</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>15</v>
@@ -5970,19 +5970,19 @@
         <v>8004</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>4582</v>
+        <v>4439</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>12811</v>
+        <v>13620</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01589134340955616</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.009098369574218491</v>
+        <v>0.008813949282971698</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.02543644037517935</v>
+        <v>0.02704301389934266</v>
       </c>
     </row>
     <row r="9">
@@ -5999,19 +5999,19 @@
         <v>11454</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>6907</v>
+        <v>7367</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>17629</v>
+        <v>17783</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.05689717128377189</v>
+        <v>0.05689717128377191</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.034310911552008</v>
+        <v>0.03659845549272868</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.0875735073633449</v>
+        <v>0.08834145574555263</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>48</v>
@@ -6020,19 +6020,19 @@
         <v>23232</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>17043</v>
+        <v>17200</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>30827</v>
+        <v>30900</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.07684117549740406</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.05636993906854385</v>
+        <v>0.05688859162405979</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1019625640055259</v>
+        <v>0.1022031425266017</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>66</v>
@@ -6041,19 +6041,19 @@
         <v>34686</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>26607</v>
+        <v>26572</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>44224</v>
+        <v>43600</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.06886960188860704</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.05283012420891307</v>
+        <v>0.05276039089639824</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.08780938521185161</v>
+        <v>0.08657004463477495</v>
       </c>
     </row>
     <row r="10">
@@ -6070,19 +6070,19 @@
         <v>187381</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>180573</v>
+        <v>180443</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>192443</v>
+        <v>192477</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.930836191825841</v>
+        <v>0.9308361918258411</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8970186606714984</v>
+        <v>0.8963724199184847</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9559828428894739</v>
+        <v>0.9561495698872046</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>510</v>
@@ -6091,19 +6091,19 @@
         <v>273571</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>265302</v>
+        <v>264597</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>280568</v>
+        <v>280472</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.9048540517918775</v>
+        <v>0.9048540517918773</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8775027806775512</v>
+        <v>0.8751732247771695</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9279969333196094</v>
+        <v>0.9276794071579628</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>782</v>
@@ -6112,19 +6112,19 @@
         <v>460952</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>450370</v>
+        <v>450721</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>470281</v>
+        <v>470159</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9152390547018368</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8942292016441721</v>
+        <v>0.8949250028006225</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9337632120630638</v>
+        <v>0.9335195408724203</v>
       </c>
     </row>
     <row r="11">
@@ -6216,19 +6216,19 @@
         <v>2165</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6606</v>
+        <v>7806</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.009441653777994472</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.001503480675472852</v>
+        <v>0.001495019609299982</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.02880805220132529</v>
+        <v>0.03403921314649092</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>11</v>
@@ -6237,19 +6237,19 @@
         <v>5441</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>2581</v>
+        <v>2956</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>9646</v>
+        <v>9515</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.02300524439683459</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.0109140282157008</v>
+        <v>0.0125002813601821</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.04078334444444038</v>
+        <v>0.04023155627011208</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>14</v>
@@ -6258,19 +6258,19 @@
         <v>7606</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>4295</v>
+        <v>4280</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>13115</v>
+        <v>14095</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.0163281899136198</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.009220324891390099</v>
+        <v>0.009187036398611178</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.02815500218445656</v>
+        <v>0.03025802986511335</v>
       </c>
     </row>
     <row r="13">
@@ -6287,19 +6287,19 @@
         <v>4668</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1953</v>
+        <v>1928</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>9131</v>
+        <v>9148</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.02035805279392312</v>
+        <v>0.02035805279392313</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.008516336959478021</v>
+        <v>0.00840674649217992</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03982013948927363</v>
+        <v>0.03989180116132814</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>24</v>
@@ -6308,19 +6308,19 @@
         <v>13746</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>8574</v>
+        <v>8651</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>20032</v>
+        <v>21057</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.05812145710162516</v>
+        <v>0.05812145710162517</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03625082805307658</v>
+        <v>0.03657691461367696</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0846988108682659</v>
+        <v>0.08903409883620643</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>32</v>
@@ -6329,19 +6329,19 @@
         <v>18415</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>12469</v>
+        <v>12746</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>25972</v>
+        <v>25705</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.03953137169430278</v>
+        <v>0.03953137169430277</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.026766933570902</v>
+        <v>0.02736246752599122</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05575428591684748</v>
+        <v>0.05518250092185308</v>
       </c>
     </row>
     <row r="14">
@@ -6358,19 +6358,19 @@
         <v>222481</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>215603</v>
+        <v>216391</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>226019</v>
+        <v>225779</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9702002934280824</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9402105987747903</v>
+        <v>0.9436429028938035</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9856314782583445</v>
+        <v>0.9845848510770085</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>414</v>
@@ -6379,19 +6379,19 @@
         <v>217322</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>210606</v>
+        <v>209652</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>222930</v>
+        <v>223282</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9188732985015402</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8904770185546415</v>
+        <v>0.8864458482055652</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9425841815907718</v>
+        <v>0.9440751036896082</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>732</v>
@@ -6400,19 +6400,19 @@
         <v>439802</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>431626</v>
+        <v>430757</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>446840</v>
+        <v>446721</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9441404383920774</v>
+        <v>0.9441404383920773</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9265889487819565</v>
+        <v>0.9247215690440103</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9592489716960502</v>
+        <v>0.9589938796872121</v>
       </c>
     </row>
     <row r="15">
@@ -6507,7 +6507,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>3715</v>
+        <v>2786</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.003042098416603249</v>
@@ -6516,7 +6516,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01745416746192405</v>
+        <v>0.01308758362025617</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>5</v>
@@ -6525,19 +6525,19 @@
         <v>2527</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>852</v>
+        <v>840</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>5890</v>
+        <v>5532</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01216765612131873</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.004102443830544521</v>
+        <v>0.004045394413498076</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02835997685464131</v>
+        <v>0.02663407477510634</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>6</v>
@@ -6546,19 +6546,19 @@
         <v>3175</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1143</v>
+        <v>1166</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>6866</v>
+        <v>6582</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.007548895959475258</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.002718292090742105</v>
+        <v>0.002772351091524789</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01632681619403913</v>
+        <v>0.01565142349274038</v>
       </c>
     </row>
     <row r="17">
@@ -6575,19 +6575,19 @@
         <v>2073</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>592</v>
+        <v>661</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>5731</v>
+        <v>5978</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.009740582809407986</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.002782333652945519</v>
+        <v>0.003106592175221457</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.02692752703751846</v>
+        <v>0.02808720319323954</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>20</v>
@@ -6596,19 +6596,19 @@
         <v>10791</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>6585</v>
+        <v>6449</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>17820</v>
+        <v>18170</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.05196042182621093</v>
+        <v>0.05196042182621092</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.0317056016636041</v>
+        <v>0.03105333056140409</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.08580312899288853</v>
+        <v>0.08748748281141626</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>24</v>
@@ -6617,19 +6617,19 @@
         <v>12865</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>8304</v>
+        <v>8145</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>20393</v>
+        <v>19802</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.03059150205164314</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01974645401937888</v>
+        <v>0.01936744249373828</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.04849436204776866</v>
+        <v>0.04708759328438893</v>
       </c>
     </row>
     <row r="18">
@@ -6646,19 +6646,19 @@
         <v>210125</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>206040</v>
+        <v>206588</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>211938</v>
+        <v>211856</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.9872173187739889</v>
+        <v>0.9872173187739888</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.9680233506290616</v>
+        <v>0.9705997276649803</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9957352889777604</v>
+        <v>0.9953468764002297</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>370</v>
@@ -6667,19 +6667,19 @@
         <v>194367</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>187612</v>
+        <v>186491</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>199229</v>
+        <v>199117</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.9358719220524704</v>
+        <v>0.9358719220524705</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.9033427203859784</v>
+        <v>0.8979479617675631</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9592821713132648</v>
+        <v>0.9587421590335035</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>667</v>
@@ -6688,19 +6688,19 @@
         <v>404493</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>397116</v>
+        <v>396628</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>409888</v>
+        <v>409530</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.9618596019888817</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.9443186959814746</v>
+        <v>0.9431587598998624</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9746901835621153</v>
+        <v>0.9738383382923904</v>
       </c>
     </row>
     <row r="19">
@@ -6792,19 +6792,19 @@
         <v>5892</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2845</v>
+        <v>2784</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>11537</v>
+        <v>11451</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.008289671005231012</v>
+        <v>0.008289671005231014</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.004003423291017551</v>
+        <v>0.003917609684993537</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.0162317912992119</v>
+        <v>0.01611073065438987</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>33</v>
@@ -6813,19 +6813,19 @@
         <v>17707</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>12243</v>
+        <v>12374</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>26282</v>
+        <v>24771</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01990539953582098</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01376361859457857</v>
+        <v>0.01391092762204357</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.02954594626233438</v>
+        <v>0.02784715218848482</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>43</v>
@@ -6834,19 +6834,19 @@
         <v>23599</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>17603</v>
+        <v>17369</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>32314</v>
+        <v>32623</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.01474645937042916</v>
+        <v>0.01474645937042915</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01100000703865397</v>
+        <v>0.01085397918761525</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02019254735940541</v>
+        <v>0.02038583078664358</v>
       </c>
     </row>
     <row r="21">
@@ -6863,19 +6863,19 @@
         <v>20315</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>14466</v>
+        <v>13874</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>28316</v>
+        <v>27975</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.02858246056278726</v>
+        <v>0.02858246056278727</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.020354100074873</v>
+        <v>0.01952096780269691</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.0398398172822236</v>
+        <v>0.0393605026404523</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>110</v>
@@ -6884,19 +6884,19 @@
         <v>57842</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>47854</v>
+        <v>47429</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>69868</v>
+        <v>69787</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.06502421620773449</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.05379583815855907</v>
+        <v>0.05331788322913007</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.07854345288246702</v>
+        <v>0.07845264811380052</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>144</v>
@@ -6905,19 +6905,19 @@
         <v>78157</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>65331</v>
+        <v>65512</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>92552</v>
+        <v>92505</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.04883919290945294</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.0408248777354937</v>
+        <v>0.0409378815606489</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.05783454346823309</v>
+        <v>0.05780555016700568</v>
       </c>
     </row>
     <row r="22">
@@ -6934,19 +6934,19 @@
         <v>684534</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>675160</v>
+        <v>675643</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>691555</v>
+        <v>691992</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9631278684319818</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9499375312203763</v>
+        <v>0.9506171267733732</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9730054709243524</v>
+        <v>0.9736200870805441</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1535</v>
@@ -6955,19 +6955,19 @@
         <v>813995</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>800630</v>
+        <v>801003</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>825403</v>
+        <v>827093</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.9150703842564446</v>
+        <v>0.9150703842564445</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9000454393405519</v>
+        <v>0.9004648773181042</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9278946078816523</v>
+        <v>0.9297943003607908</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2511</v>
@@ -6976,19 +6976,19 @@
         <v>1498530</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1483014</v>
+        <v>1482435</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1512814</v>
+        <v>1514013</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.936414347720118</v>
+        <v>0.9364143477201179</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9267184815355027</v>
+        <v>0.9263568006331998</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9453404349582791</v>
+        <v>0.9460898242636157</v>
       </c>
     </row>
     <row r="23">
